--- a/environhub/savesilentvalley.xlsx
+++ b/environhub/savesilentvalley.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashitha\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9467" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,738 +14,28 @@
     <sheet name="Plot2" sheetId="5" r:id="rId5"/>
     <sheet name="Image" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>Summary</t>
   </si>
   <si>
+    <t>Long before the Internet era, a remarkable people’s movement saved a pristine moist evergreen forest in Kerala’s Palakkad District from being destroyed by a hydroelectric project. The battle for the now famous Silent Valley raged for over ten years and involved thousands of people who did not even live in the vicinity of the area that was to be destroyed. Although the campaign did not have any centralized planning, it was highly effective. The sustained pressure exerted on the government by citizens using every possible means available at the time – letters to the editors of newspapers, seminars, widespread awareness programmes, and finally petitions and appeals in court and other high offices – proved ultimately successful. In 1986 Silent Valley was declared a National Park, a striking testimony to the power of peoples’ action. The lessons from this inspiring and hard-fought campaign are still relevant today. The valley was declared as Silent Valley National Park in 1984.</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Description</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Dadra and Nagar Haveli</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Daman and Diu</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Long before the Internet era, a remarkable people’s movement saved a pristine moist evergreen forest in Kerala’s Palakkad District from being destroyed by a hydroelectric project. The battle for the now famous Silent Valley raged for over ten years and involved thousands of people who did not even live in the vicinity of the area that was to be destroyed. Although the campaign did not have any centralized planning, it was highly effective. The sustained pressure exerted on the government by citizens using every possible means available at the time – letters to the editors of newspapers, seminars, widespread awareness programmes, and finally petitions and appeals in court and other high offices – proved ultimately successful. In 1986 Silent Valley was declared a National Park, a striking testimony to the power of peoples’ action. The lessons from this inspiring and hard-fought campaign are still relevant today. The valley was declared as Silent Valley National Park in 1984.</t>
-  </si>
-  <si>
-    <t>I was in college when the Silent Valley controversy was raging.In those days we did not realise that we were participating in something so big.That is when we realised that there is need for activism to protect the environment</t>
-  </si>
-  <si>
-    <t>Unni</t>
-  </si>
-  <si>
-    <t>A conservationist</t>
-  </si>
-  <si>
-    <t>The Silent Valley movement reached out to the educated and the middle-class intelligentsia,“Earlier in the 1970s, there were wildlife conservation issues espoused by the former royalty. The Chipko (hug the trees) movement, on the other hand, was from the grassroots. The Silent Valley movement tapped into a different section of the society.</t>
-  </si>
-  <si>
-    <t>Madhav gadgil</t>
-  </si>
-  <si>
-    <t>ecologist</t>
-  </si>
-  <si>
-    <t>http://1.bp.blogspot.com/-BFAxtp8rZBU/UkKQO29o3wI/AAAAAAAAAYI/zcYrreLKyN8/s1600/4181770725_a8b61c8a72_b.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Karuvara_water_fall_-_silent_valley.jpg/500px-Karuvara_water_fall_-_silent_valley.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>political intervention</t>
   </si>
   <si>
@@ -763,13 +48,16 @@
     <t>National Committee on Environment Planning and Coordination (NCEPC) sets up a task force, chaired by Zafar Futehally, to study the ecological problems that could be precipitated by the project. Work on the project is suspended pending the task force’s impact analysis. Task Force recommends that project be scrapped. However it provides a loophole that stipulates that, if abandoning the project is not possible, a series of safeguards should be implemented. Unsurprisingly, the Kerala government opts to proceed with the project by promising to implement all safeguards. State argues that the area submerged by the dam is only 1022 hectares, of which 150 ha is grasslands. Also argues that only 10 percent of the ecosystem will be damaged, while ecological safeguards will protect the rest.</t>
   </si>
   <si>
+    <t>public involvement</t>
+  </si>
+  <si>
     <t>Sathish Chandran Nair visits Silent Valley. With missionary zeal he starts a movement to create awareness in academic circles through talks and slide shows. V.S. Vijayan of the Kerala Forest Research Institute does a study on the impact of hydroelectric projects on the environment, and writes to the authorities not to begin the project till his report is submitted. He is admonished and his report is suppressed.</t>
   </si>
   <si>
-    <t>public involvement</t>
-  </si>
-  <si>
     <t>Kerala begins the project in earnest.</t>
+  </si>
+  <si>
+    <t>court intervention</t>
   </si>
   <si>
     <t>N.V. Krishna Warrier of the Prakriti Samrakshana Samiti, Prof. Joseph John, and P. Gopalakrishnan Nair, an advocate, file a petition and get a stay order from the High Court of Kerala, stopping work on the project.
@@ -777,9 +65,6 @@
 Famous writers from Kerala join the movement and contribute their skills: poems, plays, stories and articles, to convey the message to the ordinary citizen.</t>
   </si>
   <si>
-    <t>court intervention</t>
-  </si>
-  <si>
     <t>the High Court rejects the writ plea, saying that it is not for the courts to go into the merits of scientific arguments and that it is “satisfied that the matters have received attention before the State decided to launch the project”. Work on the project begins again in earnest</t>
   </si>
   <si>
@@ -799,32 +84,1080 @@
     <t>the Silent Valley Hydroelectric Project is called off.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Prime Minister Rajiv Gandhi formally inaugurates Silent Valley National Park.</t>
+  </si>
+  <si>
     <t>5/4/195</t>
   </si>
   <si>
-    <t xml:space="preserve"> Prime Minister Rajiv Gandhi formally inaugurates Silent Valley National Park.</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Unni</t>
+  </si>
+  <si>
+    <t>A conservationist</t>
+  </si>
+  <si>
+    <t>I was in college when the Silent Valley controversy was raging.In those days we did not realise that we were participating in something so big.That is when we realised that there is need for activism to protect the environment</t>
+  </si>
+  <si>
+    <t>Madhav gadgil</t>
+  </si>
+  <si>
+    <t>ecologist</t>
+  </si>
+  <si>
+    <t>The Silent Valley movement reached out to the educated and the middle-class intelligentsia,“Earlier in the 1970s, there were wildlife conservation issues espoused by the former royalty. The Chipko (hug the trees) movement, on the other hand, was from the grassroots. The Silent Valley movement tapped into a different section of the society.</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Daman and Diu</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2004-01</t>
+  </si>
+  <si>
+    <t>2004-02</t>
+  </si>
+  <si>
+    <t>2004-03</t>
+  </si>
+  <si>
+    <t>2004-04</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2004-06</t>
+  </si>
+  <si>
+    <t>2004-07</t>
+  </si>
+  <si>
+    <t>2004-08</t>
+  </si>
+  <si>
+    <t>2004-09</t>
+  </si>
+  <si>
+    <t>2004-10</t>
+  </si>
+  <si>
+    <t>2004-11</t>
+  </si>
+  <si>
+    <t>2004-12</t>
+  </si>
+  <si>
+    <t>2005-01</t>
+  </si>
+  <si>
+    <t>2005-02</t>
+  </si>
+  <si>
+    <t>2005-03</t>
+  </si>
+  <si>
+    <t>2005-04</t>
+  </si>
+  <si>
+    <t>2005-05</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2005-07</t>
+  </si>
+  <si>
+    <t>2005-08</t>
+  </si>
+  <si>
+    <t>2005-09</t>
+  </si>
+  <si>
+    <t>2005-10</t>
+  </si>
+  <si>
+    <t>2005-11</t>
+  </si>
+  <si>
+    <t>2005-12</t>
+  </si>
+  <si>
+    <t>2006-01</t>
+  </si>
+  <si>
+    <t>2006-02</t>
+  </si>
+  <si>
+    <t>2006-03</t>
+  </si>
+  <si>
+    <t>2006-04</t>
+  </si>
+  <si>
+    <t>2006-05</t>
+  </si>
+  <si>
+    <t>2006-06</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2006-08</t>
+  </si>
+  <si>
+    <t>2006-09</t>
+  </si>
+  <si>
+    <t>2006-10</t>
+  </si>
+  <si>
+    <t>2006-11</t>
+  </si>
+  <si>
+    <t>2006-12</t>
+  </si>
+  <si>
+    <t>2007-01</t>
+  </si>
+  <si>
+    <t>2007-02</t>
+  </si>
+  <si>
+    <t>2007-03</t>
+  </si>
+  <si>
+    <t>2007-04</t>
+  </si>
+  <si>
+    <t>2007-05</t>
+  </si>
+  <si>
+    <t>2007-06</t>
+  </si>
+  <si>
+    <t>2007-07</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2007-09</t>
+  </si>
+  <si>
+    <t>2007-10</t>
+  </si>
+  <si>
+    <t>2007-11</t>
+  </si>
+  <si>
+    <t>2007-12</t>
+  </si>
+  <si>
+    <t>2008-01</t>
+  </si>
+  <si>
+    <t>2008-02</t>
+  </si>
+  <si>
+    <t>2008-03</t>
+  </si>
+  <si>
+    <t>2008-04</t>
+  </si>
+  <si>
+    <t>2008-05</t>
+  </si>
+  <si>
+    <t>2008-06</t>
+  </si>
+  <si>
+    <t>2008-07</t>
+  </si>
+  <si>
+    <t>2008-08</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2008-10</t>
+  </si>
+  <si>
+    <t>2008-11</t>
+  </si>
+  <si>
+    <t>2008-12</t>
+  </si>
+  <si>
+    <t>2009-01</t>
+  </si>
+  <si>
+    <t>2009-02</t>
+  </si>
+  <si>
+    <t>2009-03</t>
+  </si>
+  <si>
+    <t>2009-04</t>
+  </si>
+  <si>
+    <t>2009-05</t>
+  </si>
+  <si>
+    <t>2009-06</t>
+  </si>
+  <si>
+    <t>2009-07</t>
+  </si>
+  <si>
+    <t>2009-08</t>
+  </si>
+  <si>
+    <t>2009-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2009-11</t>
+  </si>
+  <si>
+    <t>2009-12</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>2010-02</t>
+  </si>
+  <si>
+    <t>2010-03</t>
+  </si>
+  <si>
+    <t>2010-04</t>
+  </si>
+  <si>
+    <t>2010-05</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>2010-07</t>
+  </si>
+  <si>
+    <t>2010-08</t>
+  </si>
+  <si>
+    <t>2010-09</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2010-12</t>
+  </si>
+  <si>
+    <t>2011-01</t>
+  </si>
+  <si>
+    <t>2011-02</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>2011-05</t>
+  </si>
+  <si>
+    <t>2011-06</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-BFAxtp8rZBU/UkKQO29o3wI/AAAAAAAAAYI/zcYrreLKyN8/s1600/4181770725_a8b61c8a72_b.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Karuvara_water_fall_-_silent_valley.jpg/500px-Karuvara_water_fall_-_silent_valley.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -832,9 +1165,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -844,21 +1419,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -907,7 +1526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,7 +1561,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,42 +1735,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" ht="409.5" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1160,166 +1774,195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C22:C24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="11.5740740740741" style="1"/>
+    <col min="3" max="3" width="23.1388888888889" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" ht="26.4" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="264" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>25661</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="237.6" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
         <v>26698</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="409.5" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
         <v>28126</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="409.5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>28890</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="52.8" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
         <v>28920</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="357" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="409.5" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
         <v>29099</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="D7" s="3">
+        <v>29099</v>
+      </c>
+    </row>
+    <row r="8" ht="330" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
         <v>29225</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="357" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="D8" s="3">
+        <v>29225</v>
+      </c>
+    </row>
+    <row r="9" ht="409.5" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
         <v>29380</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="D9" s="3">
+        <v>29380</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
         <v>29597</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="D10" s="3">
+        <v>29597</v>
+      </c>
+    </row>
+    <row r="11" ht="105.6" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
         <v>30479</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    </row>
+    <row r="12" ht="66" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
         <v>30623</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>256</v>
-      </c>
+    </row>
+    <row r="13" ht="105.6" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -1329,56 +1972,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5740740740741" style="1"/>
+    <col min="2" max="3" width="22.712962962963" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="118.8" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="198" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -1388,355 +2032,356 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="26.4" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="26.4" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="26.4" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>8</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="26.4" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="26.4" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="26.4" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="26.4" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="26.4" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="39.6" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="26.4" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -1746,1500 +2391,1501 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B47">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B50">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B53">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B60">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B67">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B69">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B71">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B73">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B75">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B76">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B77">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B78">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B79">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B82">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B83">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B84">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B85">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B86">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B87">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B88">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B89">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B90">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B91">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B93">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B94">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B95">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B96">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B97">
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B102">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B103">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B104">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B105">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B106">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B107">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B108">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B109">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B110">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B111">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B112">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B113">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B114">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B115">
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B116">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B117">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B118">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B119">
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B120">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B121">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B123">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B124">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B125">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B126">
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B127">
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B128">
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B129">
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B130">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B131">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B133">
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B134">
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B135">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B136">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="B137">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B138">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B139">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B140">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B141">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B142">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B143">
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B144">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B145">
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B146">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B147">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B148">
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B151">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B152">
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B153">
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B154">
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B155">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B156">
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B157">
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="B158">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B159">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B160">
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="B161">
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B162">
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B163">
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B164">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B165">
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B166">
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B167">
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B168">
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B169">
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B170">
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B171">
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B172">
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B173">
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B174">
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B175">
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B176">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B177">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B178">
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B179">
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B180">
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B181">
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B182">
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="B183">
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B184">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B185">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3249,36 +3895,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1025" width="11.5740740740741" style="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="140.25" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" ht="132" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="165.75" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" ht="171.6" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
